--- a/media/input.xlsx
+++ b/media/input.xlsx
@@ -51,7 +51,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -73,12 +73,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +117,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -136,11 +130,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,12 +154,12 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.17"/>
   </cols>
@@ -193,29 +183,29 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44083.7956481481</v>
+        <v>44099.7956481481</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>44083.7956481481</v>
+      <c r="C3" s="3" t="n">
+        <v>44099.7956481481</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>44083.7956481481</v>
+      <c r="C4" s="3" t="n">
+        <v>44099.7956481481</v>
       </c>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
